--- a/April'21/Hello Daffodils Balance Transfer April'2021.xlsx
+++ b/April'21/Hello Daffodils Balance Transfer April'2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Rakib</t>
+  </si>
+  <si>
+    <t>03.04.2021</t>
   </si>
 </sst>
 </file>
@@ -1313,8 +1316,8 @@
   <dimension ref="A1:BH238"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2009,13 +2012,19 @@
       <c r="BH10" s="6"/>
     </row>
     <row r="11" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1">
+        <v>258444</v>
+      </c>
+      <c r="C11" s="1">
+        <v>210184</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210184</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="24"/>
@@ -3508,11 +3517,11 @@
       </c>
       <c r="B34" s="1">
         <f>SUM(B6:B33)</f>
-        <v>1541449</v>
+        <v>1799893</v>
       </c>
       <c r="C34" s="1">
         <f>SUM(C6:C33)</f>
-        <v>1561115</v>
+        <v>1771299</v>
       </c>
       <c r="D34" s="1">
         <f>SUM(D6:D33)</f>
@@ -3520,11 +3529,11 @@
       </c>
       <c r="E34" s="1">
         <f>SUM(E6:E33)</f>
-        <v>1561115</v>
+        <v>1771299</v>
       </c>
       <c r="F34" s="46">
         <f>B34-E34</f>
-        <v>-19666</v>
+        <v>28594</v>
       </c>
       <c r="G34" s="92"/>
       <c r="H34" s="93"/>
@@ -3720,7 +3729,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="44">
         <f>F34-C105+J128</f>
-        <v>-464</v>
+        <v>0</v>
       </c>
       <c r="G37" s="45"/>
       <c r="H37" s="95"/>
@@ -3784,7 +3793,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="88">
-        <v>42333</v>
+        <v>41870</v>
       </c>
       <c r="D38" s="89" t="s">
         <v>64</v>
@@ -4525,10 +4534,10 @@
         <v>58</v>
       </c>
       <c r="C50" s="114">
-        <v>19822</v>
+        <v>23632</v>
       </c>
       <c r="D50" s="76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="55"/>
@@ -4661,10 +4670,10 @@
         <v>58</v>
       </c>
       <c r="C52" s="114">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="D52" s="76" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="55"/>
@@ -4729,10 +4738,10 @@
         <v>58</v>
       </c>
       <c r="C53" s="114">
-        <v>4992</v>
+        <v>11760</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="58"/>
@@ -4865,10 +4874,10 @@
         <v>58</v>
       </c>
       <c r="C55" s="114">
-        <v>3032</v>
+        <v>8040</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="58"/>
@@ -4933,10 +4942,10 @@
         <v>58</v>
       </c>
       <c r="C56" s="114">
-        <v>1783</v>
+        <v>2547</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="58"/>
@@ -5001,10 +5010,10 @@
         <v>58</v>
       </c>
       <c r="C57" s="114">
-        <v>2990</v>
+        <v>5310</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="58"/>
@@ -5209,10 +5218,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="115">
-        <v>15854</v>
+        <v>6074</v>
       </c>
       <c r="D60" s="76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="56"/>
@@ -5561,10 +5570,10 @@
         <v>58</v>
       </c>
       <c r="C65" s="114">
-        <v>16046</v>
+        <v>36571</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="56"/>
@@ -5773,10 +5782,10 @@
         <v>58</v>
       </c>
       <c r="C68" s="114">
-        <v>955</v>
+        <v>1255</v>
       </c>
       <c r="D68" s="76" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="18"/>
@@ -5843,10 +5852,10 @@
         <v>58</v>
       </c>
       <c r="C69" s="114">
-        <v>2173</v>
+        <v>19727</v>
       </c>
       <c r="D69" s="76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="131" t="s">
@@ -8380,7 +8389,7 @@
       <c r="B105" s="130"/>
       <c r="C105" s="118">
         <f>SUM(C38:C104)</f>
-        <v>147885</v>
+        <v>195681</v>
       </c>
       <c r="D105" s="23"/>
       <c r="F105" s="102"/>
@@ -8513,7 +8522,7 @@
       <c r="B107" s="128"/>
       <c r="C107" s="108">
         <f>C105+H128-J128</f>
-        <v>147885</v>
+        <v>195681</v>
       </c>
       <c r="D107" s="21"/>
       <c r="F107" s="101"/>
